--- a/data/trans_dic/P2A_enfcro_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.6945483111366931</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5034631587336329</v>
+        <v>0.5034631587336328</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7594241502938903</v>
@@ -697,7 +697,7 @@
         <v>0.7773789223853421</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5774641492701087</v>
+        <v>0.5774641492701086</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5978910626344599</v>
+        <v>0.5979551101333864</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7276100780487473</v>
+        <v>0.7238920590147223</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6601182103629019</v>
+        <v>0.6613300577985682</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4638101541520028</v>
+        <v>0.4642005156591678</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.734793177473691</v>
+        <v>0.7375458701630061</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8366614752106621</v>
+        <v>0.8367967435639014</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8118559602300196</v>
+        <v>0.8168621973340348</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6004108664564195</v>
+        <v>0.6040611196113397</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6818991384443499</v>
+        <v>0.68147520916181</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7977489628062565</v>
+        <v>0.7965020045315184</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7570539035793734</v>
+        <v>0.7569308056300382</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5543626739001628</v>
+        <v>0.55380450520849</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6576302595738837</v>
+        <v>0.6589019556917499</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7820773652052094</v>
+        <v>0.7813314168129168</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7277902263817472</v>
+        <v>0.7262962364677015</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5424886506803398</v>
+        <v>0.5462122532350383</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7824695481103129</v>
+        <v>0.7817744848292179</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.875553489440583</v>
+        <v>0.8767227651286579</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8600454108584185</v>
+        <v>0.8624057498018239</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6557192779601326</v>
+        <v>0.6565484605848818</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7205270118595228</v>
+        <v>0.7184861758119351</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8300773662915857</v>
+        <v>0.8286338342242566</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7970998934575174</v>
+        <v>0.7960179194799148</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6026360813721321</v>
+        <v>0.6023069836182861</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.5412609421502611</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3422745865490227</v>
+        <v>0.3422745865490225</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.427378906731105</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3311137309394113</v>
+        <v>0.3300895466208124</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4293465695007157</v>
+        <v>0.4288460512934616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4313722254076084</v>
+        <v>0.4311364745397799</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2811782830915328</v>
+        <v>0.2833340257865726</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4823411175540406</v>
+        <v>0.4801806508897363</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5536798660211546</v>
+        <v>0.5514533782503378</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5159449625958089</v>
+        <v>0.5174742343821305</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3235404648152876</v>
+        <v>0.3248199585840751</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4103242964450813</v>
+        <v>0.4110913862932127</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4950053522347943</v>
+        <v>0.493236608399816</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4802467821475497</v>
+        <v>0.4802674353407032</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3076044518418306</v>
+        <v>0.3080076744317201</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3771091972891141</v>
+        <v>0.3789215962542285</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4761054899134354</v>
+        <v>0.4755970791631597</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4770882206972241</v>
+        <v>0.4778878452344344</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3231159846941558</v>
+        <v>0.3263439314286204</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5305562211591789</v>
+        <v>0.5316693373651883</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6026736188496569</v>
+        <v>0.6013657179203737</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5621516637732555</v>
+        <v>0.5611700177901078</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3603795599052869</v>
+        <v>0.3601570704404465</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4444981576076678</v>
+        <v>0.4462271761528526</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.528906571326633</v>
+        <v>0.5281429536014984</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5112734015810705</v>
+        <v>0.5130127668919466</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3363666187304633</v>
+        <v>0.3374683489665061</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.33076923084655</v>
+        <v>0.3325530270232406</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.407258759932459</v>
+        <v>0.4090823962104964</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.346537552199</v>
+        <v>0.3500965670506931</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2372894904726066</v>
+        <v>0.240854175281172</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4531692635755934</v>
+        <v>0.4564667456368897</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4716435187705464</v>
+        <v>0.4722366096850251</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4234063886162313</v>
+        <v>0.4180278991334248</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2696200438942942</v>
+        <v>0.2681001093625155</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4013639133625125</v>
+        <v>0.4049924243152724</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4502172818932091</v>
+        <v>0.4544803137096549</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3994171368945507</v>
+        <v>0.3998341422040399</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2624910336751348</v>
+        <v>0.2633421596348337</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4137922270553074</v>
+        <v>0.4165599524938629</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5015194195861263</v>
+        <v>0.5006326808742795</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4309654122513683</v>
+        <v>0.4377236887659408</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3124850262869016</v>
+        <v>0.3088818748634959</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5454565610761749</v>
+        <v>0.5546109963154932</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.571186263892552</v>
+        <v>0.5712853716438635</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5142570755471129</v>
+        <v>0.5114713939249477</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3291547140339112</v>
+        <v>0.3300751092002552</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4640109886641554</v>
+        <v>0.4677903623806983</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5180800369814116</v>
+        <v>0.520689173503895</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4602141262324409</v>
+        <v>0.4621968101599682</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3107569819477602</v>
+        <v>0.3104901880269585</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.4975629899939241</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3298599197864117</v>
+        <v>0.3298599197864118</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6039217156034284</v>
@@ -1105,7 +1105,7 @@
         <v>0.5571089253423579</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3644777430950684</v>
+        <v>0.3644777430950685</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4249510226216046</v>
+        <v>0.427944986904724</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5213642487054113</v>
+        <v>0.5206380816817915</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4807866816703854</v>
+        <v>0.4788372897354475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3132834093269449</v>
+        <v>0.3116868935845006</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5865265152865727</v>
+        <v>0.587817075332582</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6603831874609001</v>
+        <v>0.6588780091335806</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.595531017618691</v>
+        <v>0.596695851833198</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3833515417038937</v>
+        <v>0.3842133762611084</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5112409849273009</v>
+        <v>0.5137370196283521</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.595761262024821</v>
+        <v>0.5974043128372261</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5441703885480832</v>
+        <v>0.544898093680291</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3535790703076712</v>
+        <v>0.353825895554245</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4602890864399785</v>
+        <v>0.4625229735471664</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5544177473120988</v>
+        <v>0.5563256487522564</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5162372451793025</v>
+        <v>0.5142503431427015</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3493254918270513</v>
+        <v>0.3497105718077772</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6188490451500129</v>
+        <v>0.6198199262428633</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6925451527886723</v>
+        <v>0.692418576741015</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6303293825687534</v>
+        <v>0.6327358688283221</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.41175432161096</v>
+        <v>0.4118212082926486</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5366915484612661</v>
+        <v>0.5378804098693706</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6204836047405546</v>
+        <v>0.6213204393731189</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5681354348064503</v>
+        <v>0.5691036517174873</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3751327699096035</v>
+        <v>0.3754287315619704</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>616858</v>
+        <v>616924</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>709160</v>
+        <v>705536</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>497958</v>
+        <v>498872</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>268328</v>
+        <v>268553</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>966336</v>
+        <v>969956</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1119283</v>
+        <v>1119464</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>807521</v>
+        <v>812500</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>493561</v>
+        <v>496561</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1600305</v>
+        <v>1599310</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1844747</v>
+        <v>1841863</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1324093</v>
+        <v>1323877</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>776422</v>
+        <v>775640</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>678492</v>
+        <v>679804</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>762246</v>
+        <v>761519</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>549006</v>
+        <v>547879</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>313845</v>
+        <v>316000</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1029036</v>
+        <v>1028122</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1171313</v>
+        <v>1172877</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>855453</v>
+        <v>857801</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>539026</v>
+        <v>539708</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1690958</v>
+        <v>1686169</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1919504</v>
+        <v>1916166</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1394133</v>
+        <v>1392241</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>844032</v>
+        <v>843571</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>560712</v>
+        <v>558978</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>843218</v>
+        <v>842235</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>895695</v>
+        <v>895205</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>627187</v>
+        <v>631995</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>765800</v>
+        <v>762370</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>973260</v>
+        <v>969346</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1025853</v>
+        <v>1028894</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>702533</v>
+        <v>705311</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1346309</v>
+        <v>1348826</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1842291</v>
+        <v>1835708</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1952052</v>
+        <v>1952136</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1354062</v>
+        <v>1355837</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>638602</v>
+        <v>641671</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>935051</v>
+        <v>934052</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>990619</v>
+        <v>992279</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>720732</v>
+        <v>727932</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>842350</v>
+        <v>844117</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1059381</v>
+        <v>1057082</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1117726</v>
+        <v>1115774</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>782525</v>
+        <v>782042</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1458437</v>
+        <v>1464110</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1968463</v>
+        <v>1965621</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>2078165</v>
+        <v>2085235</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1480672</v>
+        <v>1485522</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>182389</v>
+        <v>183372</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>195965</v>
+        <v>196843</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>189517</v>
+        <v>191463</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>168852</v>
+        <v>171389</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>215895</v>
+        <v>217466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>216310</v>
+        <v>216582</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>232509</v>
+        <v>229556</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>198138</v>
+        <v>197021</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>412530</v>
+        <v>416259</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>423120</v>
+        <v>427127</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>437772</v>
+        <v>438229</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>379684</v>
+        <v>380915</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>228168</v>
+        <v>229694</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>241322</v>
+        <v>240895</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>235689</v>
+        <v>239385</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>222360</v>
+        <v>219796</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>259862</v>
+        <v>264223</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>261964</v>
+        <v>262009</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>282399</v>
+        <v>280869</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>241888</v>
+        <v>242565</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>476920</v>
+        <v>480804</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>486898</v>
+        <v>489350</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>504407</v>
+        <v>506580</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>449499</v>
+        <v>449113</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1392370</v>
+        <v>1402180</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1782952</v>
+        <v>1780469</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1623914</v>
+        <v>1617329</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1102972</v>
+        <v>1097351</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1981989</v>
+        <v>1986350</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2347154</v>
+        <v>2341804</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2103475</v>
+        <v>2107589</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1429252</v>
+        <v>1432465</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3402688</v>
+        <v>3419301</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4154846</v>
+        <v>4166305</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3760064</v>
+        <v>3765092</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2563091</v>
+        <v>2564880</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1508157</v>
+        <v>1515476</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1895988</v>
+        <v>1902512</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1743652</v>
+        <v>1736941</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1229864</v>
+        <v>1231220</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2091213</v>
+        <v>2094494</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2461465</v>
+        <v>2461015</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2226386</v>
+        <v>2234886</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1535147</v>
+        <v>1535396</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>3572080</v>
+        <v>3579993</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>4327260</v>
+        <v>4333096</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>3925656</v>
+        <v>3932346</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2719334</v>
+        <v>2721479</v>
       </c>
     </row>
     <row r="20">
